--- a/docs/iplm/docs.xlsx
+++ b/docs/iplm/docs.xlsx
@@ -11,7 +11,7 @@
     <sheet name="docs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">docs!$D$1:$D$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">docs!$D$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -38,31 +38,25 @@
     <t xml:space="preserve">locked</t>
   </si>
   <si>
-    <t xml:space="preserve">optical-instrumentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optical Instrumentation</t>
+    <t xml:space="preserve">msd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean Squared Displacement</t>
   </si>
   <si>
     <t xml:space="preserve">Imaging Processing &amp; Light Microscopy</t>
   </si>
   <si>
-    <t xml:space="preserve">mean-squared-displacement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean Squared Displacement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">introduction-to-fast-fourier-transforms-fft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1D Fast Fourier Transforms (FFT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brownian-motion-the-langevin-equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Langevin Equation</t>
+    <t xml:space="preserve">fft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast Fourier Transforms (FFT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">langevin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langevin Dynamics</t>
   </si>
   <si>
     <t xml:space="preserve">photon-statistics</t>
@@ -75,6 +69,24 @@
   </si>
   <si>
     <t xml:space="preserve">LED CMOS Sync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca-dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcium Dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analog Impulse Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fourier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fourier Analysis</t>
   </si>
 </sst>
 </file>
@@ -109,18 +121,18 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu Thin"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Ubuntu Thin"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -166,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,15 +187,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,120 +212,151 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="4" style="1" width="10.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="n">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="n">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="n">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="n">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="n">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="n">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/docs/iplm/docs.xlsx
+++ b/docs/iplm/docs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fourier Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicroRNAs in Type 1 Diabetes</t>
   </si>
 </sst>
 </file>
@@ -212,10 +215,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7:D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -361,6 +364,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/docs/iplm/docs.xlsx
+++ b/docs/iplm/docs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fourier Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro-rna</t>
   </si>
   <si>
     <t xml:space="preserve">MicroRNAs in Type 1 Diabetes</t>
@@ -217,8 +220,8 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9:D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -365,8 +368,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>

--- a/docs/iplm/docs.xlsx
+++ b/docs/iplm/docs.xlsx
@@ -11,7 +11,7 @@
     <sheet name="docs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">docs!$D$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">docs!$D$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -38,61 +38,13 @@
     <t xml:space="preserve">locked</t>
   </si>
   <si>
-    <t xml:space="preserve">msd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean Squared Displacement</t>
+    <t xml:space="preserve">ca-dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca2+ Dynamics</t>
   </si>
   <si>
     <t xml:space="preserve">Imaging Processing &amp; Light Microscopy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fast Fourier Transforms (FFT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">langevin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langevin Dynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photon-statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photon Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta-cell-signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED CMOS Sync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca-dynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcium Dynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog Impulse Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fourier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fourier Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro-rna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicroRNAs in Type 1 Diabetes</t>
   </si>
 </sst>
 </file>
@@ -203,12 +155,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -218,19 +170,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="4" style="1" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="1" width="10.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="1" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -262,126 +214,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
